--- a/seinfeld_episode_rankings.xlsx
+++ b/seinfeld_episode_rankings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malsmith/codeup-data-science/seinfeld/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18A56F6-4082-3844-9FAC-4FFB74DEE813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38F749F-348A-824B-8345-F76BD2C70BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2040" yWindow="0" windowWidth="27680" windowHeight="17440" xr2:uid="{4FF63B93-CEE8-4849-8C46-69009425F249}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="218">
   <si>
     <t>Title</t>
   </si>
@@ -697,7 +697,10 @@
     <t>"Kramer's first name revealed"</t>
   </si>
   <si>
-    <t>re-gifting"</t>
+    <t>"re-gifting"</t>
+  </si>
+  <si>
+    <t>the bro</t>
   </si>
 </sst>
 </file>
@@ -1099,7 +1102,7 @@
   <dimension ref="A1:J181"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4324,9 +4327,18 @@
       <c r="A101" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+      <c r="C101">
+        <v>6</v>
+      </c>
+      <c r="D101">
+        <v>23.5</v>
+      </c>
       <c r="E101">
         <f>((seinfeld_episode_rankings[[#This Row],[Plot]]*seinfeld_episode_rankings[[#This Row],[Quotability/cultural impact ]])*(seinfeld_episode_rankings[[#This Row],[Laughs]]/23))</f>
-        <v>0</v>
+        <v>18.39130434782609</v>
       </c>
       <c r="F101">
         <v>8.1999999999999993</v>
@@ -4348,9 +4360,18 @@
       <c r="A102" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="B102">
+        <v>4</v>
+      </c>
+      <c r="C102">
+        <v>10</v>
+      </c>
+      <c r="D102">
+        <v>26.5</v>
+      </c>
       <c r="E102">
         <f>((seinfeld_episode_rankings[[#This Row],[Plot]]*seinfeld_episode_rankings[[#This Row],[Quotability/cultural impact ]])*(seinfeld_episode_rankings[[#This Row],[Laughs]]/23))</f>
-        <v>0</v>
+        <v>46.086956521739133</v>
       </c>
       <c r="F102">
         <v>8.1999999999999993</v>
@@ -4359,7 +4380,7 @@
         <v>98</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>17</v>
+        <v>217</v>
       </c>
       <c r="I102">
         <v>6</v>
@@ -4372,9 +4393,18 @@
       <c r="A103" s="1" t="s">
         <v>142</v>
       </c>
+      <c r="B103">
+        <v>4</v>
+      </c>
+      <c r="C103">
+        <v>6</v>
+      </c>
+      <c r="D103">
+        <v>22.5</v>
+      </c>
       <c r="E103">
         <f>((seinfeld_episode_rankings[[#This Row],[Plot]]*seinfeld_episode_rankings[[#This Row],[Quotability/cultural impact ]])*(seinfeld_episode_rankings[[#This Row],[Laughs]]/23))</f>
-        <v>0</v>
+        <v>23.478260869565219</v>
       </c>
       <c r="F103">
         <v>8.9</v>
@@ -4396,9 +4426,18 @@
       <c r="A104" s="1" t="s">
         <v>143</v>
       </c>
+      <c r="B104">
+        <v>3</v>
+      </c>
+      <c r="C104">
+        <v>7</v>
+      </c>
+      <c r="D104">
+        <v>23</v>
+      </c>
       <c r="E104">
         <f>((seinfeld_episode_rankings[[#This Row],[Plot]]*seinfeld_episode_rankings[[#This Row],[Quotability/cultural impact ]])*(seinfeld_episode_rankings[[#This Row],[Laughs]]/23))</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F104">
         <v>8.1999999999999993</v>

--- a/seinfeld_episode_rankings.xlsx
+++ b/seinfeld_episode_rankings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malsmith/codeup-data-science/seinfeld/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38F749F-348A-824B-8345-F76BD2C70BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA1ED63-9018-B04C-BEE6-4AADE685F9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="0" windowWidth="27680" windowHeight="17440" xr2:uid="{4FF63B93-CEE8-4849-8C46-69009425F249}"/>
+    <workbookView xWindow="2020" yWindow="0" windowWidth="27680" windowHeight="17440" xr2:uid="{4FF63B93-CEE8-4849-8C46-69009425F249}"/>
   </bookViews>
   <sheets>
     <sheet name="seinfeld episode rankings" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="219">
   <si>
     <t>Title</t>
   </si>
@@ -701,6 +701,9 @@
   </si>
   <si>
     <t>the bro</t>
+  </si>
+  <si>
+    <t>assman</t>
   </si>
 </sst>
 </file>
@@ -1101,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42782775-1E9A-204A-B7CE-4CC8D61671AA}">
   <dimension ref="A1:J181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4459,9 +4462,18 @@
       <c r="A105" s="1" t="s">
         <v>144</v>
       </c>
+      <c r="B105">
+        <v>4</v>
+      </c>
+      <c r="C105">
+        <v>10</v>
+      </c>
+      <c r="D105">
+        <v>49</v>
+      </c>
       <c r="E105">
         <f>((seinfeld_episode_rankings[[#This Row],[Plot]]*seinfeld_episode_rankings[[#This Row],[Quotability/cultural impact ]])*(seinfeld_episode_rankings[[#This Row],[Laughs]]/23))</f>
-        <v>0</v>
+        <v>85.217391304347828</v>
       </c>
       <c r="F105">
         <v>8.6999999999999993</v>
@@ -4470,7 +4482,7 @@
         <v>24</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>17</v>
+        <v>218</v>
       </c>
       <c r="I105">
         <v>6</v>
@@ -4483,9 +4495,18 @@
       <c r="A106" s="1" t="s">
         <v>145</v>
       </c>
+      <c r="B106">
+        <v>2</v>
+      </c>
+      <c r="C106">
+        <v>5</v>
+      </c>
+      <c r="D106">
+        <v>12</v>
+      </c>
       <c r="E106">
         <f>((seinfeld_episode_rankings[[#This Row],[Plot]]*seinfeld_episode_rankings[[#This Row],[Quotability/cultural impact ]])*(seinfeld_episode_rankings[[#This Row],[Laughs]]/23))</f>
-        <v>0</v>
+        <v>5.2173913043478262</v>
       </c>
       <c r="F106">
         <v>8.1</v>
@@ -4507,9 +4528,18 @@
       <c r="A107" s="1" t="s">
         <v>146</v>
       </c>
+      <c r="B107">
+        <v>3</v>
+      </c>
+      <c r="C107">
+        <v>9</v>
+      </c>
+      <c r="D107">
+        <v>21</v>
+      </c>
       <c r="E107">
         <f>((seinfeld_episode_rankings[[#This Row],[Plot]]*seinfeld_episode_rankings[[#This Row],[Quotability/cultural impact ]])*(seinfeld_episode_rankings[[#This Row],[Laughs]]/23))</f>
-        <v>0</v>
+        <v>24.652173913043477</v>
       </c>
       <c r="F107">
         <v>8.4</v>

--- a/seinfeld_episode_rankings.xlsx
+++ b/seinfeld_episode_rankings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malsmith/codeup-data-science/seinfeld/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA1ED63-9018-B04C-BEE6-4AADE685F9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B37B19-615B-5640-BEAE-523FCCF9F1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="0" windowWidth="27680" windowHeight="17440" xr2:uid="{4FF63B93-CEE8-4849-8C46-69009425F249}"/>
+    <workbookView xWindow="0" yWindow="160" windowWidth="27680" windowHeight="17440" xr2:uid="{4FF63B93-CEE8-4849-8C46-69009425F249}"/>
   </bookViews>
   <sheets>
     <sheet name="seinfeld episode rankings" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">'seinfeld episode rankings'!$A$1:$J$181</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -739,10 +739,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1104,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42782775-1E9A-204A-B7CE-4CC8D61671AA}">
   <dimension ref="A1:J181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1154,7 +1153,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2">
@@ -1175,7 +1174,7 @@
       <c r="G2">
         <v>166</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>11</v>
       </c>
       <c r="I2">
@@ -1186,7 +1185,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3">
@@ -1207,7 +1206,7 @@
       <c r="G3">
         <v>173</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>13</v>
       </c>
       <c r="I3">
@@ -1218,7 +1217,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4">
@@ -1239,7 +1238,7 @@
       <c r="G4">
         <v>160</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>15</v>
       </c>
       <c r="I4">
@@ -1250,7 +1249,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
       <c r="B5">
@@ -1271,7 +1270,7 @@
       <c r="G5">
         <v>166</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
         <v>17</v>
       </c>
       <c r="I5">
@@ -1282,7 +1281,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
       <c r="B6">
@@ -1303,7 +1302,7 @@
       <c r="G6">
         <v>168</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" t="s">
         <v>17</v>
       </c>
       <c r="I6">
@@ -1314,7 +1313,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
       <c r="B7">
@@ -1335,7 +1334,7 @@
       <c r="G7">
         <v>160</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" t="s">
         <v>17</v>
       </c>
       <c r="I7">
@@ -1346,7 +1345,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8">
@@ -1367,7 +1366,7 @@
       <c r="G8">
         <v>149</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" t="s">
         <v>17</v>
       </c>
       <c r="I8">
@@ -1378,7 +1377,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>21</v>
       </c>
       <c r="B9">
@@ -1399,7 +1398,7 @@
       <c r="G9">
         <v>79</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" t="s">
         <v>17</v>
       </c>
       <c r="I9">
@@ -1410,7 +1409,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
       <c r="B10">
@@ -1431,7 +1430,7 @@
       <c r="G10">
         <v>58</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" t="s">
         <v>23</v>
       </c>
       <c r="I10">
@@ -1442,7 +1441,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>24</v>
       </c>
       <c r="B11">
@@ -1463,7 +1462,7 @@
       <c r="G11">
         <v>149</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" t="s">
         <v>25</v>
       </c>
       <c r="I11">
@@ -1474,7 +1473,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>26</v>
       </c>
       <c r="B12">
@@ -1495,7 +1494,7 @@
       <c r="G12">
         <v>135</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" t="s">
         <v>17</v>
       </c>
       <c r="I12">
@@ -1506,7 +1505,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>27</v>
       </c>
       <c r="B13">
@@ -1527,7 +1526,7 @@
       <c r="G13">
         <v>79</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" t="s">
         <v>28</v>
       </c>
       <c r="I13">
@@ -1538,7 +1537,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>29</v>
       </c>
       <c r="B14">
@@ -1559,7 +1558,7 @@
       <c r="G14">
         <v>149</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" t="s">
         <v>17</v>
       </c>
       <c r="I14">
@@ -1570,7 +1569,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>30</v>
       </c>
       <c r="B15">
@@ -1591,7 +1590,7 @@
       <c r="G15">
         <v>79</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" t="s">
         <v>17</v>
       </c>
       <c r="I15">
@@ -1602,7 +1601,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>31</v>
       </c>
       <c r="B16">
@@ -1623,7 +1622,7 @@
       <c r="G16">
         <v>168</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" t="s">
         <v>17</v>
       </c>
       <c r="I16">
@@ -1634,7 +1633,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>32</v>
       </c>
       <c r="B17">
@@ -1655,7 +1654,7 @@
       <c r="G17">
         <v>24</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" t="s">
         <v>17</v>
       </c>
       <c r="I17">
@@ -1666,7 +1665,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>33</v>
       </c>
       <c r="B18">
@@ -1687,7 +1686,7 @@
       <c r="G18">
         <v>160</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" t="s">
         <v>17</v>
       </c>
       <c r="I18">
@@ -1698,7 +1697,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>34</v>
       </c>
       <c r="B19">
@@ -1719,7 +1718,7 @@
       <c r="G19">
         <v>98</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" t="s">
         <v>17</v>
       </c>
       <c r="I19">
@@ -1730,7 +1729,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>35</v>
       </c>
       <c r="B20">
@@ -1751,7 +1750,7 @@
       <c r="G20">
         <v>158</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" t="s">
         <v>17</v>
       </c>
       <c r="I20">
@@ -1762,7 +1761,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>36</v>
       </c>
       <c r="B21">
@@ -1783,7 +1782,7 @@
       <c r="G21">
         <v>98</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" t="s">
         <v>37</v>
       </c>
       <c r="I21">
@@ -1794,7 +1793,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>38</v>
       </c>
       <c r="B22">
@@ -1815,7 +1814,7 @@
       <c r="G22">
         <v>173</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" t="s">
         <v>17</v>
       </c>
       <c r="I22">
@@ -1826,7 +1825,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>39</v>
       </c>
       <c r="B23">
@@ -1847,7 +1846,7 @@
       <c r="G23">
         <v>35</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" t="s">
         <v>40</v>
       </c>
       <c r="I23">
@@ -1858,7 +1857,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>41</v>
       </c>
       <c r="B24">
@@ -1879,7 +1878,7 @@
       <c r="G24">
         <v>20</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" t="s">
         <v>17</v>
       </c>
       <c r="I24">
@@ -1890,7 +1889,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>42</v>
       </c>
       <c r="B25">
@@ -1911,7 +1910,7 @@
       <c r="G25">
         <v>58</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" t="s">
         <v>43</v>
       </c>
       <c r="I25">
@@ -1922,7 +1921,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>44</v>
       </c>
       <c r="B26">
@@ -1943,7 +1942,7 @@
       <c r="G26">
         <v>24</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" t="s">
         <v>45</v>
       </c>
       <c r="I26">
@@ -1954,7 +1953,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>46</v>
       </c>
       <c r="B27">
@@ -1975,7 +1974,7 @@
       <c r="G27">
         <v>135</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" t="s">
         <v>17</v>
       </c>
       <c r="I27">
@@ -1986,7 +1985,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>47</v>
       </c>
       <c r="B28">
@@ -2007,7 +2006,7 @@
       <c r="G28">
         <v>168</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" t="s">
         <v>17</v>
       </c>
       <c r="I28">
@@ -2018,7 +2017,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>48</v>
       </c>
       <c r="B29">
@@ -2039,7 +2038,7 @@
       <c r="G29">
         <v>79</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" t="s">
         <v>17</v>
       </c>
       <c r="I29">
@@ -2050,7 +2049,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>49</v>
       </c>
       <c r="B30">
@@ -2071,7 +2070,7 @@
       <c r="G30">
         <v>58</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H30" t="s">
         <v>17</v>
       </c>
       <c r="I30">
@@ -2082,7 +2081,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>50</v>
       </c>
       <c r="B31">
@@ -2103,7 +2102,7 @@
       <c r="G31">
         <v>24</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" t="s">
         <v>17</v>
       </c>
       <c r="I31">
@@ -2114,7 +2113,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>51</v>
       </c>
       <c r="B32">
@@ -2135,7 +2134,7 @@
       <c r="G32">
         <v>58</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" t="s">
         <v>17</v>
       </c>
       <c r="I32">
@@ -2146,7 +2145,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>52</v>
       </c>
       <c r="B33">
@@ -2167,7 +2166,7 @@
       <c r="G33">
         <v>168</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" t="s">
         <v>53</v>
       </c>
       <c r="I33">
@@ -2178,7 +2177,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>54</v>
       </c>
       <c r="B34">
@@ -2199,7 +2198,7 @@
       <c r="G34">
         <v>58</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H34" t="s">
         <v>17</v>
       </c>
       <c r="I34">
@@ -2210,7 +2209,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>55</v>
       </c>
       <c r="B35">
@@ -2231,7 +2230,7 @@
       <c r="G35">
         <v>58</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H35" t="s">
         <v>17</v>
       </c>
       <c r="I35">
@@ -2242,7 +2241,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>56</v>
       </c>
       <c r="B36">
@@ -2263,7 +2262,7 @@
       <c r="G36">
         <v>10</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" t="s">
         <v>17</v>
       </c>
       <c r="I36">
@@ -2274,7 +2273,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>57</v>
       </c>
       <c r="B37">
@@ -2295,7 +2294,7 @@
       <c r="G37">
         <v>10</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H37" t="s">
         <v>17</v>
       </c>
       <c r="I37">
@@ -2306,7 +2305,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>58</v>
       </c>
       <c r="B38">
@@ -2327,7 +2326,7 @@
       <c r="G38">
         <v>135</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H38" t="s">
         <v>17</v>
       </c>
       <c r="I38">
@@ -2338,7 +2337,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>59</v>
       </c>
       <c r="B39">
@@ -2359,7 +2358,7 @@
       <c r="G39">
         <v>135</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H39" t="s">
         <v>60</v>
       </c>
       <c r="I39">
@@ -2370,7 +2369,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>61</v>
       </c>
       <c r="B40">
@@ -2391,7 +2390,7 @@
       <c r="G40">
         <v>79</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H40" t="s">
         <v>17</v>
       </c>
       <c r="I40">
@@ -2402,7 +2401,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>62</v>
       </c>
       <c r="B41">
@@ -2423,7 +2422,7 @@
       <c r="G41">
         <v>58</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H41" t="s">
         <v>17</v>
       </c>
       <c r="I41">
@@ -2434,7 +2433,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>63</v>
       </c>
       <c r="B42">
@@ -2455,7 +2454,7 @@
       <c r="G42">
         <v>79</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H42" t="s">
         <v>17</v>
       </c>
       <c r="I42">
@@ -2466,7 +2465,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>64</v>
       </c>
       <c r="B43">
@@ -2487,7 +2486,7 @@
       <c r="G43">
         <v>79</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H43" t="s">
         <v>17</v>
       </c>
       <c r="I43">
@@ -2498,7 +2497,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>65</v>
       </c>
       <c r="B44">
@@ -2519,7 +2518,7 @@
       <c r="G44">
         <v>35</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H44" t="s">
         <v>66</v>
       </c>
       <c r="I44">
@@ -2530,7 +2529,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>67</v>
       </c>
       <c r="B45">
@@ -2551,7 +2550,7 @@
       <c r="G45">
         <v>79</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="H45" t="s">
         <v>17</v>
       </c>
       <c r="I45">
@@ -2562,7 +2561,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>68</v>
       </c>
       <c r="B46">
@@ -2583,7 +2582,7 @@
       <c r="G46">
         <v>112</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="H46" t="s">
         <v>69</v>
       </c>
       <c r="I46">
@@ -2594,7 +2593,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>70</v>
       </c>
       <c r="B47">
@@ -2615,7 +2614,7 @@
       <c r="G47">
         <v>112</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="H47" t="s">
         <v>71</v>
       </c>
       <c r="I47">
@@ -2626,7 +2625,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
         <v>72</v>
       </c>
       <c r="B48">
@@ -2647,7 +2646,7 @@
       <c r="G48">
         <v>24</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="H48" t="s">
         <v>17</v>
       </c>
       <c r="I48">
@@ -2658,7 +2657,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+      <c r="A49" t="s">
         <v>73</v>
       </c>
       <c r="B49">
@@ -2679,7 +2678,7 @@
       <c r="G49">
         <v>49</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="H49" t="s">
         <v>17</v>
       </c>
       <c r="I49">
@@ -2690,7 +2689,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+      <c r="A50" t="s">
         <v>74</v>
       </c>
       <c r="B50">
@@ -2711,7 +2710,7 @@
       <c r="G50">
         <v>98</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H50" t="s">
         <v>75</v>
       </c>
       <c r="I50">
@@ -2722,7 +2721,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+      <c r="A51" t="s">
         <v>76</v>
       </c>
       <c r="B51">
@@ -2743,7 +2742,7 @@
       <c r="G51">
         <v>112</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="H51" t="s">
         <v>17</v>
       </c>
       <c r="I51">
@@ -2754,7 +2753,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+      <c r="A52" t="s">
         <v>77</v>
       </c>
       <c r="B52">
@@ -2775,7 +2774,7 @@
       <c r="G52">
         <v>1</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="H52" t="s">
         <v>78</v>
       </c>
       <c r="I52">
@@ -2786,7 +2785,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+      <c r="A53" t="s">
         <v>79</v>
       </c>
       <c r="B53">
@@ -2807,7 +2806,7 @@
       <c r="G53">
         <v>10</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="H53" t="s">
         <v>17</v>
       </c>
       <c r="I53">
@@ -2818,7 +2817,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+      <c r="A54" t="s">
         <v>80</v>
       </c>
       <c r="B54">
@@ -2839,7 +2838,7 @@
       <c r="G54">
         <v>49</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="H54" t="s">
         <v>17</v>
       </c>
       <c r="I54">
@@ -2850,7 +2849,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="A55" t="s">
         <v>81</v>
       </c>
       <c r="B55">
@@ -2871,7 +2870,7 @@
       <c r="G55">
         <v>112</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="H55" t="s">
         <v>17</v>
       </c>
       <c r="I55">
@@ -2882,7 +2881,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+      <c r="A56" t="s">
         <v>82</v>
       </c>
       <c r="B56">
@@ -2903,7 +2902,7 @@
       <c r="G56">
         <v>112</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="H56" t="s">
         <v>17</v>
       </c>
       <c r="I56">
@@ -2914,7 +2913,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+      <c r="A57" t="s">
         <v>83</v>
       </c>
       <c r="B57">
@@ -2935,7 +2934,7 @@
       <c r="G57">
         <v>112</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="H57" t="s">
         <v>84</v>
       </c>
       <c r="I57">
@@ -2946,7 +2945,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
+      <c r="A58" t="s">
         <v>85</v>
       </c>
       <c r="B58">
@@ -2967,7 +2966,7 @@
       <c r="G58">
         <v>4</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="H58" t="s">
         <v>86</v>
       </c>
       <c r="I58">
@@ -2978,7 +2977,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+      <c r="A59" t="s">
         <v>87</v>
       </c>
       <c r="B59">
@@ -2999,7 +2998,7 @@
       <c r="G59">
         <v>135</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="H59" t="s">
         <v>88</v>
       </c>
       <c r="I59">
@@ -3010,7 +3009,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
+      <c r="A60" t="s">
         <v>89</v>
       </c>
       <c r="B60">
@@ -3031,7 +3030,7 @@
       <c r="G60">
         <v>35</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="H60" t="s">
         <v>17</v>
       </c>
       <c r="I60">
@@ -3042,7 +3041,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
+      <c r="A61" t="s">
         <v>90</v>
       </c>
       <c r="B61">
@@ -3063,7 +3062,7 @@
       <c r="G61">
         <v>24</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="H61" t="s">
         <v>91</v>
       </c>
       <c r="I61">
@@ -3074,7 +3073,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
+      <c r="A62" t="s">
         <v>92</v>
       </c>
       <c r="B62">
@@ -3095,7 +3094,7 @@
       <c r="G62">
         <v>58</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="H62" t="s">
         <v>17</v>
       </c>
       <c r="I62">
@@ -3106,7 +3105,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
+      <c r="A63" t="s">
         <v>93</v>
       </c>
       <c r="B63">
@@ -3127,7 +3126,7 @@
       <c r="G63">
         <v>79</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="H63" t="s">
         <v>94</v>
       </c>
       <c r="I63">
@@ -3138,7 +3137,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
+      <c r="A64" t="s">
         <v>95</v>
       </c>
       <c r="B64">
@@ -3159,7 +3158,7 @@
       <c r="G64">
         <v>79</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="H64" t="s">
         <v>17</v>
       </c>
       <c r="I64">
@@ -3170,7 +3169,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
+      <c r="A65" t="s">
         <v>96</v>
       </c>
       <c r="B65">
@@ -3191,7 +3190,7 @@
       <c r="G65">
         <v>35</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="H65" t="s">
         <v>97</v>
       </c>
       <c r="I65">
@@ -3202,7 +3201,7 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
+      <c r="A66" t="s">
         <v>98</v>
       </c>
       <c r="B66">
@@ -3223,7 +3222,7 @@
       <c r="G66">
         <v>58</v>
       </c>
-      <c r="H66" s="1" t="s">
+      <c r="H66" t="s">
         <v>99</v>
       </c>
       <c r="I66">
@@ -3234,7 +3233,7 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
+      <c r="A67" t="s">
         <v>100</v>
       </c>
       <c r="B67">
@@ -3255,7 +3254,7 @@
       <c r="G67">
         <v>20</v>
       </c>
-      <c r="H67" s="1" t="s">
+      <c r="H67" t="s">
         <v>101</v>
       </c>
       <c r="I67">
@@ -3266,7 +3265,7 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
+      <c r="A68" t="s">
         <v>102</v>
       </c>
       <c r="B68">
@@ -3287,7 +3286,7 @@
       <c r="G68">
         <v>79</v>
       </c>
-      <c r="H68" s="1" t="s">
+      <c r="H68" t="s">
         <v>17</v>
       </c>
       <c r="I68">
@@ -3298,7 +3297,7 @@
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
+      <c r="A69" t="s">
         <v>103</v>
       </c>
       <c r="B69">
@@ -3319,7 +3318,7 @@
       <c r="G69">
         <v>135</v>
       </c>
-      <c r="H69" s="1" t="s">
+      <c r="H69" t="s">
         <v>104</v>
       </c>
       <c r="I69">
@@ -3330,7 +3329,7 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
+      <c r="A70" t="s">
         <v>105</v>
       </c>
       <c r="B70">
@@ -3351,7 +3350,7 @@
       <c r="G70">
         <v>149</v>
       </c>
-      <c r="H70" s="1" t="s">
+      <c r="H70" t="s">
         <v>17</v>
       </c>
       <c r="I70">
@@ -3362,7 +3361,7 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
+      <c r="A71" t="s">
         <v>106</v>
       </c>
       <c r="B71">
@@ -3383,7 +3382,7 @@
       <c r="G71">
         <v>79</v>
       </c>
-      <c r="H71" s="1" t="s">
+      <c r="H71" t="s">
         <v>17</v>
       </c>
       <c r="I71">
@@ -3394,7 +3393,7 @@
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
+      <c r="A72" t="s">
         <v>107</v>
       </c>
       <c r="B72">
@@ -3415,7 +3414,7 @@
       <c r="G72">
         <v>79</v>
       </c>
-      <c r="H72" s="1" t="s">
+      <c r="H72" t="s">
         <v>108</v>
       </c>
       <c r="I72">
@@ -3426,7 +3425,7 @@
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
+      <c r="A73" t="s">
         <v>109</v>
       </c>
       <c r="B73">
@@ -3447,7 +3446,7 @@
       <c r="G73">
         <v>58</v>
       </c>
-      <c r="H73" s="1" t="s">
+      <c r="H73" t="s">
         <v>17</v>
       </c>
       <c r="I73">
@@ -3458,7 +3457,7 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
+      <c r="A74" t="s">
         <v>110</v>
       </c>
       <c r="B74">
@@ -3479,7 +3478,7 @@
       <c r="G74">
         <v>160</v>
       </c>
-      <c r="H74" s="1" t="s">
+      <c r="H74" t="s">
         <v>17</v>
       </c>
       <c r="I74">
@@ -3490,7 +3489,7 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
+      <c r="A75" t="s">
         <v>111</v>
       </c>
       <c r="B75">
@@ -3511,7 +3510,7 @@
       <c r="G75">
         <v>98</v>
       </c>
-      <c r="H75" s="1" t="s">
+      <c r="H75" t="s">
         <v>17</v>
       </c>
       <c r="I75">
@@ -3522,7 +3521,7 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
+      <c r="A76" t="s">
         <v>112</v>
       </c>
       <c r="B76">
@@ -3543,7 +3542,7 @@
       <c r="G76">
         <v>112</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="H76" t="s">
         <v>17</v>
       </c>
       <c r="I76">
@@ -3554,7 +3553,7 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
+      <c r="A77" t="s">
         <v>113</v>
       </c>
       <c r="B77">
@@ -3575,7 +3574,7 @@
       <c r="G77">
         <v>58</v>
       </c>
-      <c r="H77" s="1" t="s">
+      <c r="H77" t="s">
         <v>17</v>
       </c>
       <c r="I77">
@@ -3586,7 +3585,7 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
+      <c r="A78" t="s">
         <v>114</v>
       </c>
       <c r="B78">
@@ -3607,7 +3606,7 @@
       <c r="G78">
         <v>112</v>
       </c>
-      <c r="H78" s="1" t="s">
+      <c r="H78" t="s">
         <v>17</v>
       </c>
       <c r="I78">
@@ -3618,7 +3617,7 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
+      <c r="A79" t="s">
         <v>115</v>
       </c>
       <c r="B79">
@@ -3639,7 +3638,7 @@
       <c r="G79">
         <v>5</v>
       </c>
-      <c r="H79" s="1" t="s">
+      <c r="H79" t="s">
         <v>17</v>
       </c>
       <c r="I79">
@@ -3650,7 +3649,7 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
+      <c r="A80" t="s">
         <v>116</v>
       </c>
       <c r="B80">
@@ -3671,7 +3670,7 @@
       <c r="G80">
         <v>58</v>
       </c>
-      <c r="H80" s="1" t="s">
+      <c r="H80" t="s">
         <v>17</v>
       </c>
       <c r="I80">
@@ -3682,7 +3681,7 @@
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
+      <c r="A81" t="s">
         <v>117</v>
       </c>
       <c r="B81">
@@ -3703,7 +3702,7 @@
       <c r="G81">
         <v>172</v>
       </c>
-      <c r="H81" s="1" t="s">
+      <c r="H81" t="s">
         <v>17</v>
       </c>
       <c r="I81">
@@ -3714,7 +3713,7 @@
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
+      <c r="A82" t="s">
         <v>118</v>
       </c>
       <c r="B82">
@@ -3735,7 +3734,7 @@
       <c r="G82">
         <v>135</v>
       </c>
-      <c r="H82" s="1" t="s">
+      <c r="H82" t="s">
         <v>17</v>
       </c>
       <c r="I82">
@@ -3746,7 +3745,7 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
+      <c r="A83" t="s">
         <v>119</v>
       </c>
       <c r="B83">
@@ -3767,7 +3766,7 @@
       <c r="G83">
         <v>79</v>
       </c>
-      <c r="H83" s="1" t="s">
+      <c r="H83" t="s">
         <v>17</v>
       </c>
       <c r="I83">
@@ -3778,7 +3777,7 @@
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
+      <c r="A84" t="s">
         <v>120</v>
       </c>
       <c r="B84">
@@ -3799,7 +3798,7 @@
       <c r="G84">
         <v>49</v>
       </c>
-      <c r="H84" s="1" t="s">
+      <c r="H84" t="s">
         <v>121</v>
       </c>
       <c r="I84">
@@ -3810,7 +3809,7 @@
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
+      <c r="A85" t="s">
         <v>122</v>
       </c>
       <c r="B85">
@@ -3831,7 +3830,7 @@
       <c r="G85">
         <v>10</v>
       </c>
-      <c r="H85" s="1" t="s">
+      <c r="H85" t="s">
         <v>123</v>
       </c>
       <c r="I85">
@@ -3842,7 +3841,7 @@
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
+      <c r="A86" t="s">
         <v>124</v>
       </c>
       <c r="B86">
@@ -3863,7 +3862,7 @@
       <c r="G86">
         <v>1</v>
       </c>
-      <c r="H86" s="1" t="s">
+      <c r="H86" t="s">
         <v>17</v>
       </c>
       <c r="I86">
@@ -3874,7 +3873,7 @@
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
+      <c r="A87" t="s">
         <v>125</v>
       </c>
       <c r="B87">
@@ -3895,7 +3894,7 @@
       <c r="G87">
         <v>149</v>
       </c>
-      <c r="H87" s="1" t="s">
+      <c r="H87" t="s">
         <v>126</v>
       </c>
       <c r="I87">
@@ -3906,7 +3905,7 @@
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
+      <c r="A88" t="s">
         <v>127</v>
       </c>
       <c r="B88">
@@ -3927,7 +3926,7 @@
       <c r="G88">
         <v>112</v>
       </c>
-      <c r="H88" s="1" t="s">
+      <c r="H88" t="s">
         <v>17</v>
       </c>
       <c r="I88">
@@ -3938,7 +3937,7 @@
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
+      <c r="A89" t="s">
         <v>128</v>
       </c>
       <c r="B89">
@@ -3959,7 +3958,7 @@
       <c r="G89">
         <v>98</v>
       </c>
-      <c r="H89" s="1" t="s">
+      <c r="H89" t="s">
         <v>17</v>
       </c>
       <c r="I89">
@@ -3970,7 +3969,7 @@
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
+      <c r="A90" t="s">
         <v>129</v>
       </c>
       <c r="B90">
@@ -3991,7 +3990,7 @@
       <c r="G90">
         <v>112</v>
       </c>
-      <c r="H90" s="1" t="s">
+      <c r="H90" t="s">
         <v>17</v>
       </c>
       <c r="I90">
@@ -4002,7 +4001,7 @@
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
+      <c r="A91" t="s">
         <v>130</v>
       </c>
       <c r="B91">
@@ -4023,7 +4022,7 @@
       <c r="G91">
         <v>112</v>
       </c>
-      <c r="H91" s="1" t="s">
+      <c r="H91" t="s">
         <v>17</v>
       </c>
       <c r="I91">
@@ -4034,7 +4033,7 @@
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
+      <c r="A92" t="s">
         <v>131</v>
       </c>
       <c r="B92">
@@ -4055,7 +4054,7 @@
       <c r="G92">
         <v>98</v>
       </c>
-      <c r="H92" s="1" t="s">
+      <c r="H92" t="s">
         <v>17</v>
       </c>
       <c r="I92">
@@ -4066,7 +4065,7 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
+      <c r="A93" t="s">
         <v>132</v>
       </c>
       <c r="B93">
@@ -4087,7 +4086,7 @@
       <c r="G93">
         <v>112</v>
       </c>
-      <c r="H93" s="1" t="s">
+      <c r="H93" t="s">
         <v>17</v>
       </c>
       <c r="I93">
@@ -4098,7 +4097,7 @@
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
+      <c r="A94" t="s">
         <v>133</v>
       </c>
       <c r="B94">
@@ -4119,7 +4118,7 @@
       <c r="G94">
         <v>112</v>
       </c>
-      <c r="H94" s="1" t="s">
+      <c r="H94" t="s">
         <v>17</v>
       </c>
       <c r="I94">
@@ -4130,7 +4129,7 @@
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
+      <c r="A95" t="s">
         <v>134</v>
       </c>
       <c r="B95">
@@ -4151,7 +4150,7 @@
       <c r="G95">
         <v>112</v>
       </c>
-      <c r="H95" s="1" t="s">
+      <c r="H95" t="s">
         <v>17</v>
       </c>
       <c r="I95">
@@ -4162,7 +4161,7 @@
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
+      <c r="A96" t="s">
         <v>135</v>
       </c>
       <c r="B96">
@@ -4184,7 +4183,7 @@
       <c r="G96">
         <v>10</v>
       </c>
-      <c r="H96" s="1" t="s">
+      <c r="H96" t="s">
         <v>17</v>
       </c>
       <c r="I96">
@@ -4195,7 +4194,7 @@
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
+      <c r="A97" t="s">
         <v>136</v>
       </c>
       <c r="B97">
@@ -4217,7 +4216,7 @@
       <c r="G97">
         <v>10</v>
       </c>
-      <c r="H97" s="1" t="s">
+      <c r="H97" t="s">
         <v>215</v>
       </c>
       <c r="I97">
@@ -4228,7 +4227,7 @@
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
+      <c r="A98" t="s">
         <v>137</v>
       </c>
       <c r="B98">
@@ -4250,7 +4249,7 @@
       <c r="G98">
         <v>49</v>
       </c>
-      <c r="H98" s="2" t="s">
+      <c r="H98" s="1" t="s">
         <v>216</v>
       </c>
       <c r="I98">
@@ -4261,7 +4260,7 @@
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
+      <c r="A99" t="s">
         <v>138</v>
       </c>
       <c r="B99">
@@ -4283,7 +4282,7 @@
       <c r="G99">
         <v>135</v>
       </c>
-      <c r="H99" s="1" t="s">
+      <c r="H99" t="s">
         <v>17</v>
       </c>
       <c r="I99">
@@ -4294,7 +4293,7 @@
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
+      <c r="A100" t="s">
         <v>139</v>
       </c>
       <c r="B100">
@@ -4316,7 +4315,7 @@
       <c r="G100">
         <v>98</v>
       </c>
-      <c r="H100" s="1" t="s">
+      <c r="H100" t="s">
         <v>17</v>
       </c>
       <c r="I100">
@@ -4327,7 +4326,7 @@
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
+      <c r="A101" t="s">
         <v>140</v>
       </c>
       <c r="B101">
@@ -4349,7 +4348,7 @@
       <c r="G101">
         <v>98</v>
       </c>
-      <c r="H101" s="1" t="s">
+      <c r="H101" t="s">
         <v>17</v>
       </c>
       <c r="I101">
@@ -4360,7 +4359,7 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
+      <c r="A102" t="s">
         <v>141</v>
       </c>
       <c r="B102">
@@ -4382,7 +4381,7 @@
       <c r="G102">
         <v>98</v>
       </c>
-      <c r="H102" s="1" t="s">
+      <c r="H102" t="s">
         <v>217</v>
       </c>
       <c r="I102">
@@ -4393,7 +4392,7 @@
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
+      <c r="A103" t="s">
         <v>142</v>
       </c>
       <c r="B103">
@@ -4415,7 +4414,7 @@
       <c r="G103">
         <v>10</v>
       </c>
-      <c r="H103" s="1" t="s">
+      <c r="H103" t="s">
         <v>17</v>
       </c>
       <c r="I103">
@@ -4426,7 +4425,7 @@
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
+      <c r="A104" t="s">
         <v>143</v>
       </c>
       <c r="B104">
@@ -4448,7 +4447,7 @@
       <c r="G104">
         <v>98</v>
       </c>
-      <c r="H104" s="1" t="s">
+      <c r="H104" t="s">
         <v>17</v>
       </c>
       <c r="I104">
@@ -4459,7 +4458,7 @@
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
+      <c r="A105" t="s">
         <v>144</v>
       </c>
       <c r="B105">
@@ -4481,7 +4480,7 @@
       <c r="G105">
         <v>24</v>
       </c>
-      <c r="H105" s="1" t="s">
+      <c r="H105" t="s">
         <v>218</v>
       </c>
       <c r="I105">
@@ -4492,7 +4491,7 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
+      <c r="A106" t="s">
         <v>145</v>
       </c>
       <c r="B106">
@@ -4514,7 +4513,7 @@
       <c r="G106">
         <v>112</v>
       </c>
-      <c r="H106" s="1" t="s">
+      <c r="H106" t="s">
         <v>17</v>
       </c>
       <c r="I106">
@@ -4525,7 +4524,7 @@
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
+      <c r="A107" t="s">
         <v>146</v>
       </c>
       <c r="B107">
@@ -4547,7 +4546,7 @@
       <c r="G107">
         <v>58</v>
       </c>
-      <c r="H107" s="1" t="s">
+      <c r="H107" t="s">
         <v>17</v>
       </c>
       <c r="I107">
@@ -4558,12 +4557,21 @@
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
+      <c r="A108" t="s">
         <v>147</v>
       </c>
+      <c r="B108">
+        <v>3</v>
+      </c>
+      <c r="C108">
+        <v>7</v>
+      </c>
+      <c r="D108">
+        <v>18</v>
+      </c>
       <c r="E108">
         <f>((seinfeld_episode_rankings[[#This Row],[Plot]]*seinfeld_episode_rankings[[#This Row],[Quotability/cultural impact ]])*(seinfeld_episode_rankings[[#This Row],[Laughs]]/23))</f>
-        <v>0</v>
+        <v>16.434782608695652</v>
       </c>
       <c r="F108">
         <v>7.9</v>
@@ -4571,7 +4579,7 @@
       <c r="G108">
         <v>149</v>
       </c>
-      <c r="H108" s="1" t="s">
+      <c r="H108" t="s">
         <v>17</v>
       </c>
       <c r="I108">
@@ -4582,12 +4590,21 @@
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
+      <c r="A109" t="s">
         <v>148</v>
       </c>
+      <c r="B109">
+        <v>4</v>
+      </c>
+      <c r="C109">
+        <v>8</v>
+      </c>
+      <c r="D109">
+        <v>41</v>
+      </c>
       <c r="E109">
         <f>((seinfeld_episode_rankings[[#This Row],[Plot]]*seinfeld_episode_rankings[[#This Row],[Quotability/cultural impact ]])*(seinfeld_episode_rankings[[#This Row],[Laughs]]/23))</f>
-        <v>0</v>
+        <v>57.043478260869563</v>
       </c>
       <c r="F109">
         <v>8.6</v>
@@ -4595,7 +4612,7 @@
       <c r="G109">
         <v>35</v>
       </c>
-      <c r="H109" s="1" t="s">
+      <c r="H109" t="s">
         <v>17</v>
       </c>
       <c r="I109">
@@ -4606,12 +4623,21 @@
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
+      <c r="A110" t="s">
         <v>149</v>
       </c>
+      <c r="B110">
+        <v>4</v>
+      </c>
+      <c r="C110">
+        <v>9</v>
+      </c>
+      <c r="D110">
+        <v>30</v>
+      </c>
       <c r="E110">
         <f>((seinfeld_episode_rankings[[#This Row],[Plot]]*seinfeld_episode_rankings[[#This Row],[Quotability/cultural impact ]])*(seinfeld_episode_rankings[[#This Row],[Laughs]]/23))</f>
-        <v>0</v>
+        <v>46.956521739130437</v>
       </c>
       <c r="F110">
         <v>8.1999999999999993</v>
@@ -4619,7 +4645,7 @@
       <c r="G110">
         <v>98</v>
       </c>
-      <c r="H110" s="1" t="s">
+      <c r="H110" t="s">
         <v>17</v>
       </c>
       <c r="I110">
@@ -4630,12 +4656,21 @@
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
+      <c r="A111" t="s">
         <v>150</v>
       </c>
+      <c r="B111">
+        <v>3</v>
+      </c>
+      <c r="C111">
+        <v>7</v>
+      </c>
+      <c r="D111">
+        <v>18.5</v>
+      </c>
       <c r="E111">
         <f>((seinfeld_episode_rankings[[#This Row],[Plot]]*seinfeld_episode_rankings[[#This Row],[Quotability/cultural impact ]])*(seinfeld_episode_rankings[[#This Row],[Laughs]]/23))</f>
-        <v>0</v>
+        <v>16.891304347826086</v>
       </c>
       <c r="F111">
         <v>8.1</v>
@@ -4643,7 +4678,7 @@
       <c r="G111">
         <v>112</v>
       </c>
-      <c r="H111" s="1" t="s">
+      <c r="H111" t="s">
         <v>17</v>
       </c>
       <c r="I111">
@@ -4654,12 +4689,21 @@
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
+      <c r="A112" t="s">
         <v>151</v>
       </c>
+      <c r="B112">
+        <v>4</v>
+      </c>
+      <c r="C112">
+        <v>9</v>
+      </c>
+      <c r="D112">
+        <v>24</v>
+      </c>
       <c r="E112">
         <f>((seinfeld_episode_rankings[[#This Row],[Plot]]*seinfeld_episode_rankings[[#This Row],[Quotability/cultural impact ]])*(seinfeld_episode_rankings[[#This Row],[Laughs]]/23))</f>
-        <v>0</v>
+        <v>37.565217391304344</v>
       </c>
       <c r="F112">
         <v>8.6</v>
@@ -4667,7 +4711,7 @@
       <c r="G112">
         <v>35</v>
       </c>
-      <c r="H112" s="1" t="s">
+      <c r="H112" t="s">
         <v>17</v>
       </c>
       <c r="I112">
@@ -4678,12 +4722,21 @@
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
+      <c r="A113" t="s">
         <v>152</v>
       </c>
+      <c r="B113">
+        <v>5</v>
+      </c>
+      <c r="C113">
+        <v>9</v>
+      </c>
+      <c r="D113">
+        <v>23</v>
+      </c>
       <c r="E113">
         <f>((seinfeld_episode_rankings[[#This Row],[Plot]]*seinfeld_episode_rankings[[#This Row],[Quotability/cultural impact ]])*(seinfeld_episode_rankings[[#This Row],[Laughs]]/23))</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F113">
         <v>8.6</v>
@@ -4691,7 +4744,7 @@
       <c r="G113">
         <v>35</v>
       </c>
-      <c r="H113" s="1" t="s">
+      <c r="H113" t="s">
         <v>17</v>
       </c>
       <c r="I113">
@@ -4702,12 +4755,21 @@
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
+      <c r="A114" t="s">
         <v>153</v>
       </c>
+      <c r="B114">
+        <v>5</v>
+      </c>
+      <c r="C114">
+        <v>10</v>
+      </c>
+      <c r="D114">
+        <v>45</v>
+      </c>
       <c r="E114">
         <f>((seinfeld_episode_rankings[[#This Row],[Plot]]*seinfeld_episode_rankings[[#This Row],[Quotability/cultural impact ]])*(seinfeld_episode_rankings[[#This Row],[Laughs]]/23))</f>
-        <v>0</v>
+        <v>97.826086956521735</v>
       </c>
       <c r="F114">
         <v>9.5</v>
@@ -4715,7 +4777,7 @@
       <c r="G114">
         <v>3</v>
       </c>
-      <c r="H114" s="1" t="s">
+      <c r="H114" t="s">
         <v>17</v>
       </c>
       <c r="I114">
@@ -4726,12 +4788,21 @@
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
+      <c r="A115" t="s">
         <v>154</v>
       </c>
+      <c r="B115">
+        <v>3</v>
+      </c>
+      <c r="C115">
+        <v>6</v>
+      </c>
+      <c r="D115">
+        <v>19</v>
+      </c>
       <c r="E115">
         <f>((seinfeld_episode_rankings[[#This Row],[Plot]]*seinfeld_episode_rankings[[#This Row],[Quotability/cultural impact ]])*(seinfeld_episode_rankings[[#This Row],[Laughs]]/23))</f>
-        <v>0</v>
+        <v>14.869565217391305</v>
       </c>
       <c r="F115">
         <v>8.4</v>
@@ -4739,7 +4810,7 @@
       <c r="G115">
         <v>58</v>
       </c>
-      <c r="H115" s="1" t="s">
+      <c r="H115" t="s">
         <v>17</v>
       </c>
       <c r="I115">
@@ -4750,12 +4821,21 @@
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
+      <c r="A116" t="s">
         <v>155</v>
       </c>
+      <c r="B116">
+        <v>4</v>
+      </c>
+      <c r="C116">
+        <v>9</v>
+      </c>
+      <c r="D116">
+        <v>27</v>
+      </c>
       <c r="E116">
         <f>((seinfeld_episode_rankings[[#This Row],[Plot]]*seinfeld_episode_rankings[[#This Row],[Quotability/cultural impact ]])*(seinfeld_episode_rankings[[#This Row],[Laughs]]/23))</f>
-        <v>0</v>
+        <v>42.260869565217398</v>
       </c>
       <c r="F116">
         <v>8.3000000000000007</v>
@@ -4763,7 +4843,7 @@
       <c r="G116">
         <v>79</v>
       </c>
-      <c r="H116" s="1" t="s">
+      <c r="H116" t="s">
         <v>17</v>
       </c>
       <c r="I116">
@@ -4774,12 +4854,21 @@
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
+      <c r="A117" t="s">
         <v>156</v>
       </c>
+      <c r="B117">
+        <v>5</v>
+      </c>
+      <c r="C117">
+        <v>10</v>
+      </c>
+      <c r="D117">
+        <v>15</v>
+      </c>
       <c r="E117">
         <f>((seinfeld_episode_rankings[[#This Row],[Plot]]*seinfeld_episode_rankings[[#This Row],[Quotability/cultural impact ]])*(seinfeld_episode_rankings[[#This Row],[Laughs]]/23))</f>
-        <v>0</v>
+        <v>32.608695652173914</v>
       </c>
       <c r="F117">
         <v>8.3000000000000007</v>
@@ -4787,7 +4876,7 @@
       <c r="G117">
         <v>79</v>
       </c>
-      <c r="H117" s="1" t="s">
+      <c r="H117" t="s">
         <v>17</v>
       </c>
       <c r="I117">
@@ -4798,12 +4887,21 @@
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
+      <c r="A118" t="s">
         <v>157</v>
       </c>
+      <c r="B118">
+        <v>4</v>
+      </c>
+      <c r="C118">
+        <v>9</v>
+      </c>
+      <c r="D118">
+        <v>21</v>
+      </c>
       <c r="E118">
         <f>((seinfeld_episode_rankings[[#This Row],[Plot]]*seinfeld_episode_rankings[[#This Row],[Quotability/cultural impact ]])*(seinfeld_episode_rankings[[#This Row],[Laughs]]/23))</f>
-        <v>0</v>
+        <v>32.869565217391305</v>
       </c>
       <c r="F118">
         <v>8.6</v>
@@ -4811,7 +4909,7 @@
       <c r="G118">
         <v>35</v>
       </c>
-      <c r="H118" s="1" t="s">
+      <c r="H118" t="s">
         <v>17</v>
       </c>
       <c r="I118">
@@ -4822,12 +4920,21 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
+      <c r="A119" t="s">
         <v>158</v>
       </c>
+      <c r="B119">
+        <v>4</v>
+      </c>
+      <c r="C119">
+        <v>8</v>
+      </c>
+      <c r="D119">
+        <v>30</v>
+      </c>
       <c r="E119">
         <f>((seinfeld_episode_rankings[[#This Row],[Plot]]*seinfeld_episode_rankings[[#This Row],[Quotability/cultural impact ]])*(seinfeld_episode_rankings[[#This Row],[Laughs]]/23))</f>
-        <v>0</v>
+        <v>41.739130434782609</v>
       </c>
       <c r="F119">
         <v>8.8000000000000007</v>
@@ -4835,7 +4942,7 @@
       <c r="G119">
         <v>20</v>
       </c>
-      <c r="H119" s="1" t="s">
+      <c r="H119" t="s">
         <v>17</v>
       </c>
       <c r="I119">
@@ -4846,7 +4953,7 @@
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
+      <c r="A120" t="s">
         <v>159</v>
       </c>
       <c r="E120">
@@ -4859,7 +4966,7 @@
       <c r="G120">
         <v>35</v>
       </c>
-      <c r="H120" s="1" t="s">
+      <c r="H120" t="s">
         <v>17</v>
       </c>
       <c r="I120">
@@ -4870,7 +4977,7 @@
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
+      <c r="A121" t="s">
         <v>160</v>
       </c>
       <c r="E121">
@@ -4883,7 +4990,7 @@
       <c r="G121">
         <v>112</v>
       </c>
-      <c r="H121" s="1" t="s">
+      <c r="H121" t="s">
         <v>17</v>
       </c>
       <c r="I121">
@@ -4894,7 +5001,7 @@
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
+      <c r="A122" t="s">
         <v>161</v>
       </c>
       <c r="E122">
@@ -4907,7 +5014,7 @@
       <c r="G122">
         <v>49</v>
       </c>
-      <c r="H122" s="1" t="s">
+      <c r="H122" t="s">
         <v>17</v>
       </c>
       <c r="I122">
@@ -4918,7 +5025,7 @@
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
+      <c r="A123" t="s">
         <v>162</v>
       </c>
       <c r="E123">
@@ -4931,7 +5038,7 @@
       <c r="G123">
         <v>49</v>
       </c>
-      <c r="H123" s="1" t="s">
+      <c r="H123" t="s">
         <v>17</v>
       </c>
       <c r="I123">
@@ -4942,7 +5049,7 @@
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
+      <c r="A124" t="s">
         <v>163</v>
       </c>
       <c r="E124">
@@ -4955,7 +5062,7 @@
       <c r="G124">
         <v>58</v>
       </c>
-      <c r="H124" s="1" t="s">
+      <c r="H124" t="s">
         <v>17</v>
       </c>
       <c r="I124">
@@ -4966,7 +5073,7 @@
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
+      <c r="A125" t="s">
         <v>164</v>
       </c>
       <c r="E125">
@@ -4979,7 +5086,7 @@
       <c r="G125">
         <v>112</v>
       </c>
-      <c r="H125" s="1" t="s">
+      <c r="H125" t="s">
         <v>17</v>
       </c>
       <c r="I125">
@@ -4990,7 +5097,7 @@
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
+      <c r="A126" t="s">
         <v>165</v>
       </c>
       <c r="E126">
@@ -5003,7 +5110,7 @@
       <c r="G126">
         <v>160</v>
       </c>
-      <c r="H126" s="1" t="s">
+      <c r="H126" t="s">
         <v>17</v>
       </c>
       <c r="I126">
@@ -5014,7 +5121,7 @@
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
+      <c r="A127" t="s">
         <v>166</v>
       </c>
       <c r="E127">
@@ -5027,7 +5134,7 @@
       <c r="G127">
         <v>112</v>
       </c>
-      <c r="H127" s="1" t="s">
+      <c r="H127" t="s">
         <v>17</v>
       </c>
       <c r="I127">
@@ -5038,7 +5145,7 @@
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
+      <c r="A128" t="s">
         <v>167</v>
       </c>
       <c r="E128">
@@ -5051,7 +5158,7 @@
       <c r="G128">
         <v>24</v>
       </c>
-      <c r="H128" s="1" t="s">
+      <c r="H128" t="s">
         <v>17</v>
       </c>
       <c r="I128">
@@ -5062,7 +5169,7 @@
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
+      <c r="A129" t="s">
         <v>168</v>
       </c>
       <c r="E129">
@@ -5075,7 +5182,7 @@
       <c r="G129">
         <v>35</v>
       </c>
-      <c r="H129" s="1" t="s">
+      <c r="H129" t="s">
         <v>17</v>
       </c>
       <c r="I129">
@@ -5086,7 +5193,7 @@
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
+      <c r="A130" t="s">
         <v>169</v>
       </c>
       <c r="E130">
@@ -5099,7 +5206,7 @@
       <c r="G130">
         <v>35</v>
       </c>
-      <c r="H130" s="1" t="s">
+      <c r="H130" t="s">
         <v>17</v>
       </c>
       <c r="I130">
@@ -5110,7 +5217,7 @@
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
+      <c r="A131" t="s">
         <v>170</v>
       </c>
       <c r="E131">
@@ -5123,7 +5230,7 @@
       <c r="G131">
         <v>79</v>
       </c>
-      <c r="H131" s="1" t="s">
+      <c r="H131" t="s">
         <v>17</v>
       </c>
       <c r="I131">
@@ -5134,7 +5241,7 @@
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
+      <c r="A132" t="s">
         <v>171</v>
       </c>
       <c r="E132">
@@ -5147,7 +5254,7 @@
       <c r="G132">
         <v>35</v>
       </c>
-      <c r="H132" s="1" t="s">
+      <c r="H132" t="s">
         <v>17</v>
       </c>
       <c r="I132">
@@ -5158,7 +5265,7 @@
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A133" s="1" t="s">
+      <c r="A133" t="s">
         <v>172</v>
       </c>
       <c r="E133">
@@ -5171,7 +5278,7 @@
       <c r="G133">
         <v>112</v>
       </c>
-      <c r="H133" s="1" t="s">
+      <c r="H133" t="s">
         <v>17</v>
       </c>
       <c r="I133">
@@ -5182,7 +5289,7 @@
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A134" s="1" t="s">
+      <c r="A134" t="s">
         <v>173</v>
       </c>
       <c r="E134">
@@ -5195,7 +5302,7 @@
       <c r="G134">
         <v>135</v>
       </c>
-      <c r="H134" s="1" t="s">
+      <c r="H134" t="s">
         <v>17</v>
       </c>
       <c r="I134">
@@ -5206,7 +5313,7 @@
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A135" s="1" t="s">
+      <c r="A135" t="s">
         <v>174</v>
       </c>
       <c r="E135">
@@ -5219,7 +5326,7 @@
       <c r="G135">
         <v>6</v>
       </c>
-      <c r="H135" s="1" t="s">
+      <c r="H135" t="s">
         <v>17</v>
       </c>
       <c r="I135">
@@ -5230,7 +5337,7 @@
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A136" s="1" t="s">
+      <c r="A136" t="s">
         <v>175</v>
       </c>
       <c r="E136">
@@ -5243,7 +5350,7 @@
       <c r="G136">
         <v>10</v>
       </c>
-      <c r="H136" s="1" t="s">
+      <c r="H136" t="s">
         <v>17</v>
       </c>
       <c r="I136">
@@ -5254,7 +5361,7 @@
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A137" s="1" t="s">
+      <c r="A137" t="s">
         <v>176</v>
       </c>
       <c r="E137">
@@ -5267,7 +5374,7 @@
       <c r="G137">
         <v>35</v>
       </c>
-      <c r="H137" s="1" t="s">
+      <c r="H137" t="s">
         <v>17</v>
       </c>
       <c r="I137">
@@ -5278,7 +5385,7 @@
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A138" s="1" t="s">
+      <c r="A138" t="s">
         <v>177</v>
       </c>
       <c r="E138">
@@ -5291,7 +5398,7 @@
       <c r="G138">
         <v>135</v>
       </c>
-      <c r="H138" s="1" t="s">
+      <c r="H138" t="s">
         <v>17</v>
       </c>
       <c r="I138">
@@ -5302,7 +5409,7 @@
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A139" s="1" t="s">
+      <c r="A139" t="s">
         <v>178</v>
       </c>
       <c r="E139">
@@ -5315,7 +5422,7 @@
       <c r="G139">
         <v>112</v>
       </c>
-      <c r="H139" s="1" t="s">
+      <c r="H139" t="s">
         <v>17</v>
       </c>
       <c r="I139">
@@ -5326,7 +5433,7 @@
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A140" s="1" t="s">
+      <c r="A140" t="s">
         <v>179</v>
       </c>
       <c r="E140">
@@ -5339,7 +5446,7 @@
       <c r="G140">
         <v>10</v>
       </c>
-      <c r="H140" s="1" t="s">
+      <c r="H140" t="s">
         <v>17</v>
       </c>
       <c r="I140">
@@ -5350,7 +5457,7 @@
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A141" s="1" t="s">
+      <c r="A141" t="s">
         <v>180</v>
       </c>
       <c r="E141">
@@ -5363,7 +5470,7 @@
       <c r="G141">
         <v>7</v>
       </c>
-      <c r="H141" s="1" t="s">
+      <c r="H141" t="s">
         <v>17</v>
       </c>
       <c r="I141">
@@ -5374,7 +5481,7 @@
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A142" s="1" t="s">
+      <c r="A142" t="s">
         <v>181</v>
       </c>
       <c r="E142">
@@ -5387,7 +5494,7 @@
       <c r="G142">
         <v>58</v>
       </c>
-      <c r="H142" s="1" t="s">
+      <c r="H142" t="s">
         <v>17</v>
       </c>
       <c r="I142">
@@ -5398,7 +5505,7 @@
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A143" s="1" t="s">
+      <c r="A143" t="s">
         <v>182</v>
       </c>
       <c r="E143">
@@ -5411,7 +5518,7 @@
       <c r="G143">
         <v>79</v>
       </c>
-      <c r="H143" s="1" t="s">
+      <c r="H143" t="s">
         <v>17</v>
       </c>
       <c r="I143">
@@ -5422,7 +5529,7 @@
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A144" s="1" t="s">
+      <c r="A144" t="s">
         <v>183</v>
       </c>
       <c r="E144">
@@ -5435,7 +5542,7 @@
       <c r="G144">
         <v>160</v>
       </c>
-      <c r="H144" s="1" t="s">
+      <c r="H144" t="s">
         <v>17</v>
       </c>
       <c r="I144">
@@ -5446,7 +5553,7 @@
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A145" s="1" t="s">
+      <c r="A145" t="s">
         <v>184</v>
       </c>
       <c r="E145">
@@ -5459,7 +5566,7 @@
       <c r="G145">
         <v>49</v>
       </c>
-      <c r="H145" s="1" t="s">
+      <c r="H145" t="s">
         <v>17</v>
       </c>
       <c r="I145">
@@ -5470,7 +5577,7 @@
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A146" s="1" t="s">
+      <c r="A146" t="s">
         <v>185</v>
       </c>
       <c r="E146">
@@ -5483,7 +5590,7 @@
       <c r="G146">
         <v>135</v>
       </c>
-      <c r="H146" s="1" t="s">
+      <c r="H146" t="s">
         <v>17</v>
       </c>
       <c r="I146">
@@ -5494,7 +5601,7 @@
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A147" s="1" t="s">
+      <c r="A147" t="s">
         <v>186</v>
       </c>
       <c r="E147">
@@ -5507,7 +5614,7 @@
       <c r="G147">
         <v>35</v>
       </c>
-      <c r="H147" s="1" t="s">
+      <c r="H147" t="s">
         <v>17</v>
       </c>
       <c r="I147">
@@ -5518,7 +5625,7 @@
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A148" s="1" t="s">
+      <c r="A148" t="s">
         <v>187</v>
       </c>
       <c r="E148">
@@ -5531,7 +5638,7 @@
       <c r="G148">
         <v>24</v>
       </c>
-      <c r="H148" s="1" t="s">
+      <c r="H148" t="s">
         <v>17</v>
       </c>
       <c r="I148">
@@ -5542,7 +5649,7 @@
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A149" s="1" t="s">
+      <c r="A149" t="s">
         <v>188</v>
       </c>
       <c r="E149">
@@ -5555,7 +5662,7 @@
       <c r="G149">
         <v>49</v>
       </c>
-      <c r="H149" s="1" t="s">
+      <c r="H149" t="s">
         <v>17</v>
       </c>
       <c r="I149">
@@ -5566,7 +5673,7 @@
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A150" s="1" t="s">
+      <c r="A150" t="s">
         <v>189</v>
       </c>
       <c r="E150">
@@ -5579,7 +5686,7 @@
       <c r="G150">
         <v>24</v>
       </c>
-      <c r="H150" s="1" t="s">
+      <c r="H150" t="s">
         <v>17</v>
       </c>
       <c r="I150">
@@ -5590,7 +5697,7 @@
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A151" s="1" t="s">
+      <c r="A151" t="s">
         <v>190</v>
       </c>
       <c r="E151">
@@ -5603,7 +5710,7 @@
       <c r="G151">
         <v>7</v>
       </c>
-      <c r="H151" s="1" t="s">
+      <c r="H151" t="s">
         <v>17</v>
       </c>
       <c r="I151">
@@ -5614,7 +5721,7 @@
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A152" s="1" t="s">
+      <c r="A152" t="s">
         <v>191</v>
       </c>
       <c r="E152">
@@ -5627,7 +5734,7 @@
       <c r="G152">
         <v>112</v>
       </c>
-      <c r="H152" s="1" t="s">
+      <c r="H152" t="s">
         <v>17</v>
       </c>
       <c r="I152">
@@ -5638,7 +5745,7 @@
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A153" s="1" t="s">
+      <c r="A153" t="s">
         <v>192</v>
       </c>
       <c r="E153">
@@ -5651,7 +5758,7 @@
       <c r="G153">
         <v>58</v>
       </c>
-      <c r="H153" s="1" t="s">
+      <c r="H153" t="s">
         <v>17</v>
       </c>
       <c r="I153">
@@ -5662,7 +5769,7 @@
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A154" s="1" t="s">
+      <c r="A154" t="s">
         <v>193</v>
       </c>
       <c r="E154">
@@ -5675,7 +5782,7 @@
       <c r="G154">
         <v>49</v>
       </c>
-      <c r="H154" s="1" t="s">
+      <c r="H154" t="s">
         <v>17</v>
       </c>
       <c r="I154">
@@ -5686,7 +5793,7 @@
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A155" s="1" t="s">
+      <c r="A155" t="s">
         <v>194</v>
       </c>
       <c r="E155">
@@ -5699,7 +5806,7 @@
       <c r="G155">
         <v>58</v>
       </c>
-      <c r="H155" s="1" t="s">
+      <c r="H155" t="s">
         <v>17</v>
       </c>
       <c r="I155">
@@ -5710,7 +5817,7 @@
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A156" s="1" t="s">
+      <c r="A156" t="s">
         <v>195</v>
       </c>
       <c r="E156">
@@ -5723,7 +5830,7 @@
       <c r="G156">
         <v>58</v>
       </c>
-      <c r="H156" s="1" t="s">
+      <c r="H156" t="s">
         <v>17</v>
       </c>
       <c r="I156">
@@ -5734,7 +5841,7 @@
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A157" s="1" t="s">
+      <c r="A157" t="s">
         <v>196</v>
       </c>
       <c r="E157">
@@ -5747,7 +5854,7 @@
       <c r="G157">
         <v>20</v>
       </c>
-      <c r="H157" s="1" t="s">
+      <c r="H157" t="s">
         <v>17</v>
       </c>
       <c r="I157">
@@ -5758,7 +5865,7 @@
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A158" s="1" t="s">
+      <c r="A158" t="s">
         <v>197</v>
       </c>
       <c r="E158">
@@ -5771,7 +5878,7 @@
       <c r="G158">
         <v>112</v>
       </c>
-      <c r="H158" s="1" t="s">
+      <c r="H158" t="s">
         <v>17</v>
       </c>
       <c r="I158">
@@ -5782,7 +5889,7 @@
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A159" s="1" t="s">
+      <c r="A159" t="s">
         <v>198</v>
       </c>
       <c r="E159">
@@ -5795,7 +5902,7 @@
       <c r="G159">
         <v>135</v>
       </c>
-      <c r="H159" s="1" t="s">
+      <c r="H159" t="s">
         <v>17</v>
       </c>
       <c r="I159">
@@ -5806,7 +5913,7 @@
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A160" s="1" t="s">
+      <c r="A160" t="s">
         <v>199</v>
       </c>
       <c r="E160">
@@ -5819,7 +5926,7 @@
       <c r="G160">
         <v>7</v>
       </c>
-      <c r="H160" s="1" t="s">
+      <c r="H160" t="s">
         <v>17</v>
       </c>
       <c r="I160">
@@ -5830,7 +5937,7 @@
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A161" s="1" t="s">
+      <c r="A161" t="s">
         <v>200</v>
       </c>
       <c r="E161">
@@ -5843,7 +5950,7 @@
       <c r="G161">
         <v>58</v>
       </c>
-      <c r="H161" s="1" t="s">
+      <c r="H161" t="s">
         <v>17</v>
       </c>
       <c r="I161">
@@ -5854,7 +5961,7 @@
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A162" s="1" t="s">
+      <c r="A162" t="s">
         <v>201</v>
       </c>
       <c r="E162">
@@ -5867,7 +5974,7 @@
       <c r="G162">
         <v>10</v>
       </c>
-      <c r="H162" s="1" t="s">
+      <c r="H162" t="s">
         <v>17</v>
       </c>
       <c r="I162">
@@ -5878,7 +5985,7 @@
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A163" s="1" t="s">
+      <c r="A163" t="s">
         <v>202</v>
       </c>
       <c r="E163">
@@ -5891,7 +5998,7 @@
       <c r="G163">
         <v>98</v>
       </c>
-      <c r="H163" s="1" t="s">
+      <c r="H163" t="s">
         <v>17</v>
       </c>
       <c r="I163">
@@ -5902,7 +6009,7 @@
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A164" s="1" t="s">
+      <c r="A164" t="s">
         <v>203</v>
       </c>
       <c r="E164">
@@ -5915,7 +6022,7 @@
       <c r="G164">
         <v>24</v>
       </c>
-      <c r="H164" s="1" t="s">
+      <c r="H164" t="s">
         <v>17</v>
       </c>
       <c r="I164">
@@ -5926,7 +6033,7 @@
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A165" s="1" t="s">
+      <c r="A165" t="s">
         <v>204</v>
       </c>
       <c r="E165">
@@ -5939,7 +6046,7 @@
       <c r="G165">
         <v>58</v>
       </c>
-      <c r="H165" s="1" t="s">
+      <c r="H165" t="s">
         <v>17</v>
       </c>
       <c r="I165">
@@ -5950,7 +6057,7 @@
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A166" s="1" t="s">
+      <c r="A166" t="s">
         <v>205</v>
       </c>
       <c r="E166">
@@ -5963,7 +6070,7 @@
       <c r="G166">
         <v>98</v>
       </c>
-      <c r="H166" s="1" t="s">
+      <c r="H166" t="s">
         <v>17</v>
       </c>
       <c r="I166">
@@ -5974,7 +6081,7 @@
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A167" s="1" t="s">
+      <c r="A167" t="s">
         <v>206</v>
       </c>
       <c r="E167">
@@ -5987,7 +6094,7 @@
       <c r="G167">
         <v>149</v>
       </c>
-      <c r="H167" s="1" t="s">
+      <c r="H167" t="s">
         <v>17</v>
       </c>
       <c r="I167">
@@ -5998,7 +6105,7 @@
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A168" s="1" t="s">
+      <c r="A168" t="s">
         <v>207</v>
       </c>
       <c r="E168">
@@ -6011,7 +6118,7 @@
       <c r="G168">
         <v>135</v>
       </c>
-      <c r="H168" s="1" t="s">
+      <c r="H168" t="s">
         <v>17</v>
       </c>
       <c r="I168">
@@ -6022,7 +6129,7 @@
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A169" s="1" t="s">
+      <c r="A169" t="s">
         <v>208</v>
       </c>
       <c r="E169">
@@ -6035,7 +6142,7 @@
       <c r="G169">
         <v>149</v>
       </c>
-      <c r="H169" s="1" t="s">
+      <c r="H169" t="s">
         <v>17</v>
       </c>
       <c r="I169">
@@ -6046,7 +6153,7 @@
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A170" s="1" t="s">
+      <c r="A170" t="s">
         <v>209</v>
       </c>
       <c r="E170">
@@ -6059,7 +6166,7 @@
       <c r="G170">
         <v>79</v>
       </c>
-      <c r="H170" s="1" t="s">
+      <c r="H170" t="s">
         <v>17</v>
       </c>
       <c r="I170">
@@ -6070,7 +6177,7 @@
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A171" s="1" t="s">
+      <c r="A171" t="s">
         <v>210</v>
       </c>
       <c r="E171">
@@ -6083,7 +6190,7 @@
       <c r="G171">
         <v>98</v>
       </c>
-      <c r="H171" s="1" t="s">
+      <c r="H171" t="s">
         <v>17</v>
       </c>
       <c r="I171">
@@ -6094,7 +6201,7 @@
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A172" s="1" t="s">
+      <c r="A172" t="s">
         <v>211</v>
       </c>
       <c r="E172">
@@ -6107,7 +6214,7 @@
       <c r="G172">
         <v>24</v>
       </c>
-      <c r="H172" s="1" t="s">
+      <c r="H172" t="s">
         <v>17</v>
       </c>
       <c r="I172">
@@ -6118,7 +6225,7 @@
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A173" s="1" t="s">
+      <c r="A173" t="s">
         <v>212</v>
       </c>
       <c r="E173">
@@ -6131,7 +6238,7 @@
       <c r="G173">
         <v>135</v>
       </c>
-      <c r="H173" s="1" t="s">
+      <c r="H173" t="s">
         <v>17</v>
       </c>
       <c r="I173">
@@ -6142,7 +6249,7 @@
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A174" s="1" t="s">
+      <c r="A174" t="s">
         <v>213</v>
       </c>
       <c r="E174">
@@ -6155,7 +6262,7 @@
       <c r="G174">
         <v>149</v>
       </c>
-      <c r="H174" s="1" t="s">
+      <c r="H174" t="s">
         <v>17</v>
       </c>
       <c r="I174">
@@ -6166,7 +6273,7 @@
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A175" s="1" t="s">
+      <c r="A175" t="s">
         <v>214</v>
       </c>
       <c r="E175">
@@ -6179,7 +6286,7 @@
       <c r="G175">
         <v>158</v>
       </c>
-      <c r="H175" s="1" t="s">
+      <c r="H175" t="s">
         <v>17</v>
       </c>
       <c r="I175">
@@ -6190,50 +6297,50 @@
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A176" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H176" s="1" t="s">
+      <c r="A176" t="s">
+        <v>17</v>
+      </c>
+      <c r="H176" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A177" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H177" s="1" t="s">
+      <c r="A177" t="s">
+        <v>17</v>
+      </c>
+      <c r="H177" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A178" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H178" s="1" t="s">
+      <c r="A178" t="s">
+        <v>17</v>
+      </c>
+      <c r="H178" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A179" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H179" s="1" t="s">
+      <c r="A179" t="s">
+        <v>17</v>
+      </c>
+      <c r="H179" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A180" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H180" s="1" t="s">
+      <c r="A180" t="s">
+        <v>17</v>
+      </c>
+      <c r="H180" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A181" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H181" s="1" t="s">
+      <c r="A181" t="s">
+        <v>17</v>
+      </c>
+      <c r="H181" t="s">
         <v>17</v>
       </c>
     </row>
